--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fzd8-Ckap4.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.558821666666667</v>
+        <v>3.083576666666666</v>
       </c>
       <c r="H2">
-        <v>7.676465</v>
+        <v>9.250729999999999</v>
       </c>
       <c r="I2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="J2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.36378</v>
+        <v>1.695728</v>
       </c>
       <c r="N2">
-        <v>31.09134</v>
+        <v>5.087184000000001</v>
       </c>
       <c r="O2">
-        <v>0.2440702244474787</v>
+        <v>0.06675079911082282</v>
       </c>
       <c r="P2">
-        <v>0.2440702244474788</v>
+        <v>0.06675079911082282</v>
       </c>
       <c r="Q2">
-        <v>26.51906481256667</v>
+        <v>5.228907293813333</v>
       </c>
       <c r="R2">
-        <v>238.6715833131</v>
+        <v>47.06016564432</v>
       </c>
       <c r="S2">
-        <v>0.05263932760420364</v>
+        <v>0.01516918160027951</v>
       </c>
       <c r="T2">
-        <v>0.05263932760420365</v>
+        <v>0.01516918160027951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.558821666666667</v>
+        <v>3.083576666666666</v>
       </c>
       <c r="H3">
-        <v>7.676465</v>
+        <v>9.250729999999999</v>
       </c>
       <c r="I3">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="J3">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>59.659575</v>
       </c>
       <c r="O3">
-        <v>0.4683338145184863</v>
+        <v>0.7828150713365326</v>
       </c>
       <c r="P3">
-        <v>0.4683338145184862</v>
+        <v>0.7828150713365327</v>
       </c>
       <c r="Q3">
-        <v>50.88607104470834</v>
+        <v>61.32162447108333</v>
       </c>
       <c r="R3">
-        <v>457.974639402375</v>
+        <v>551.89462023975</v>
       </c>
       <c r="S3">
-        <v>0.1010069013800163</v>
+        <v>0.1778954579528665</v>
       </c>
       <c r="T3">
-        <v>0.1010069013800164</v>
+        <v>0.1778954579528665</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.558821666666667</v>
+        <v>3.083576666666666</v>
       </c>
       <c r="H4">
-        <v>7.676465</v>
+        <v>9.250729999999999</v>
       </c>
       <c r="I4">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="J4">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.21198233333333</v>
+        <v>3.821607666666667</v>
       </c>
       <c r="N4">
-        <v>36.635947</v>
+        <v>11.464823</v>
       </c>
       <c r="O4">
-        <v>0.287595961034035</v>
+        <v>0.1504341295526447</v>
       </c>
       <c r="P4">
-        <v>0.2875959610340351</v>
+        <v>0.1504341295526447</v>
       </c>
       <c r="Q4">
-        <v>31.24828498748389</v>
+        <v>11.78422023008778</v>
       </c>
       <c r="R4">
-        <v>281.234564887355</v>
+        <v>106.05798207079</v>
       </c>
       <c r="S4">
-        <v>0.06202664845655546</v>
+        <v>0.03418629680036368</v>
       </c>
       <c r="T4">
-        <v>0.06202664845655548</v>
+        <v>0.03418629680036368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.453984666666666</v>
+        <v>6.453984666666667</v>
       </c>
       <c r="H5">
         <v>19.361954</v>
       </c>
       <c r="I5">
-        <v>0.5439806384912758</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="J5">
-        <v>0.5439806384912759</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.36378</v>
+        <v>1.695728</v>
       </c>
       <c r="N5">
-        <v>31.09134</v>
+        <v>5.087184000000001</v>
       </c>
       <c r="O5">
-        <v>0.2440702244474787</v>
+        <v>0.06675079911082282</v>
       </c>
       <c r="P5">
-        <v>0.2440702244474788</v>
+        <v>0.06675079911082282</v>
       </c>
       <c r="Q5">
-        <v>66.88767720870666</v>
+        <v>10.94420251083733</v>
       </c>
       <c r="R5">
-        <v>601.98909487836</v>
+        <v>98.49782259753601</v>
       </c>
       <c r="S5">
-        <v>0.1327694765316484</v>
+        <v>0.0317493858714132</v>
       </c>
       <c r="T5">
-        <v>0.1327694765316485</v>
+        <v>0.0317493858714132</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.453984666666666</v>
+        <v>6.453984666666667</v>
       </c>
       <c r="H6">
         <v>19.361954</v>
       </c>
       <c r="I6">
-        <v>0.5439806384912758</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="J6">
-        <v>0.5439806384912759</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>59.659575</v>
       </c>
       <c r="O6">
-        <v>0.4683338145184863</v>
+        <v>0.7828150713365326</v>
       </c>
       <c r="P6">
-        <v>0.4683338145184862</v>
+        <v>0.7828150713365327</v>
       </c>
       <c r="Q6">
-        <v>128.3473274232833</v>
+        <v>128.3473274232834</v>
       </c>
       <c r="R6">
         <v>1155.12594680955</v>
       </c>
       <c r="S6">
-        <v>0.2547645274488209</v>
+        <v>0.3723385801652774</v>
       </c>
       <c r="T6">
-        <v>0.2547645274488209</v>
+        <v>0.3723385801652774</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.453984666666666</v>
+        <v>6.453984666666667</v>
       </c>
       <c r="H7">
         <v>19.361954</v>
       </c>
       <c r="I7">
-        <v>0.5439806384912758</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="J7">
-        <v>0.5439806384912759</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.21198233333333</v>
+        <v>3.821607666666667</v>
       </c>
       <c r="N7">
-        <v>36.635947</v>
+        <v>11.464823</v>
       </c>
       <c r="O7">
-        <v>0.287595961034035</v>
+        <v>0.1504341295526447</v>
       </c>
       <c r="P7">
-        <v>0.2875959610340351</v>
+        <v>0.1504341295526447</v>
       </c>
       <c r="Q7">
-        <v>78.81594672893755</v>
+        <v>24.66459728268245</v>
       </c>
       <c r="R7">
-        <v>709.3435205604379</v>
+        <v>221.981375544142</v>
       </c>
       <c r="S7">
-        <v>0.1564466345108064</v>
+        <v>0.0715525700219322</v>
       </c>
       <c r="T7">
-        <v>0.1564466345108065</v>
+        <v>0.07155257002193219</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.851558333333333</v>
+        <v>4.031477000000001</v>
       </c>
       <c r="H8">
-        <v>8.554675</v>
+        <v>12.094431</v>
       </c>
       <c r="I8">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="J8">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.36378</v>
+        <v>1.695728</v>
       </c>
       <c r="N8">
-        <v>31.09134</v>
+        <v>5.087184000000001</v>
       </c>
       <c r="O8">
-        <v>0.2440702244474787</v>
+        <v>0.06675079911082282</v>
       </c>
       <c r="P8">
-        <v>0.2440702244474788</v>
+        <v>0.06675079911082282</v>
       </c>
       <c r="Q8">
-        <v>29.55292322383333</v>
+        <v>6.836288430256001</v>
       </c>
       <c r="R8">
-        <v>265.9763090145</v>
+        <v>61.52659587230401</v>
       </c>
       <c r="S8">
-        <v>0.0586614203116266</v>
+        <v>0.01983223163913012</v>
       </c>
       <c r="T8">
-        <v>0.05866142031162662</v>
+        <v>0.01983223163913012</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.851558333333333</v>
+        <v>4.031477000000001</v>
       </c>
       <c r="H9">
-        <v>8.554675</v>
+        <v>12.094431</v>
       </c>
       <c r="I9">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="J9">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>59.659575</v>
       </c>
       <c r="O9">
-        <v>0.4683338145184863</v>
+        <v>0.7828150713365326</v>
       </c>
       <c r="P9">
-        <v>0.4683338145184862</v>
+        <v>0.7828150713365327</v>
       </c>
       <c r="Q9">
-        <v>56.70758608479167</v>
+        <v>80.17206814742502</v>
       </c>
       <c r="R9">
-        <v>510.368274763125</v>
+        <v>721.5486133268251</v>
       </c>
       <c r="S9">
-        <v>0.112562385689649</v>
+        <v>0.2325810332183888</v>
       </c>
       <c r="T9">
-        <v>0.112562385689649</v>
+        <v>0.2325810332183888</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.851558333333333</v>
+        <v>4.031477000000001</v>
       </c>
       <c r="H10">
-        <v>8.554675</v>
+        <v>12.094431</v>
       </c>
       <c r="I10">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="J10">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.21198233333333</v>
+        <v>3.821607666666667</v>
       </c>
       <c r="N10">
-        <v>36.635947</v>
+        <v>11.464823</v>
       </c>
       <c r="O10">
-        <v>0.287595961034035</v>
+        <v>0.1504341295526447</v>
       </c>
       <c r="P10">
-        <v>0.2875959610340351</v>
+        <v>0.1504341295526447</v>
       </c>
       <c r="Q10">
-        <v>34.82317998913611</v>
+        <v>15.40672341119034</v>
       </c>
       <c r="R10">
-        <v>313.408619902225</v>
+        <v>138.660510700713</v>
       </c>
       <c r="S10">
-        <v>0.06912267806667308</v>
+        <v>0.04469526273034878</v>
       </c>
       <c r="T10">
-        <v>0.06912267806667312</v>
+        <v>0.04469526273034878</v>
       </c>
     </row>
   </sheetData>
